--- a/KeyaSocialMedia.xlsx
+++ b/KeyaSocialMedia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99DD5DFE-0ABE-4061-8745-BBA57C3B189B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CD43B9C-920A-4CBC-8942-FF40013C3F2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="63">
   <si>
     <t>GENDER</t>
   </si>
@@ -202,6 +202,24 @@
   </si>
   <si>
     <t>avarage</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>2,2</t>
+  </si>
+  <si>
+    <t>Life Science</t>
+  </si>
+  <si>
+    <t>Social Science</t>
+  </si>
+  <si>
+    <t>4,1</t>
+  </si>
+  <si>
+    <t>Stress</t>
   </si>
 </sst>
 </file>
@@ -741,9 +759,9 @@
   </sheetPr>
   <dimension ref="A1:AF1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AF16" sqref="AF16"/>
+      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2381,148 +2399,859 @@
       </c>
     </row>
     <row r="18" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="V18" s="16"/>
-      <c r="W18" s="16"/>
-      <c r="X18" s="16"/>
-      <c r="Y18" s="16"/>
-      <c r="Z18" s="16"/>
-      <c r="AA18" s="16"/>
-      <c r="AB18" s="16"/>
-      <c r="AC18" s="16"/>
-      <c r="AD18" s="16"/>
+      <c r="A18" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18">
+        <v>2004</v>
+      </c>
+      <c r="C18">
+        <v>21</v>
+      </c>
+      <c r="D18">
+        <v>157.47999999999999</v>
+      </c>
+      <c r="E18">
+        <v>53</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="I18" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="J18" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="K18">
+        <v>8.06</v>
+      </c>
+      <c r="L18">
+        <v>0.3</v>
+      </c>
+      <c r="M18">
+        <v>1.5</v>
+      </c>
+      <c r="N18">
+        <v>0.35</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>2</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>7</v>
+      </c>
+      <c r="S18">
+        <v>1</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>5</v>
+      </c>
+      <c r="V18" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="W18" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="X18" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y18" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z18" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA18" s="16">
+        <v>1</v>
+      </c>
+      <c r="AB18" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC18" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD18" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE18">
+        <v>10</v>
+      </c>
+      <c r="AF18">
+        <v>37</v>
+      </c>
     </row>
     <row r="19" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="V19" s="14"/>
-      <c r="W19" s="14"/>
-      <c r="X19" s="14"/>
-      <c r="Y19" s="14"/>
-      <c r="Z19" s="14"/>
-      <c r="AA19" s="14"/>
-      <c r="AB19" s="14"/>
-      <c r="AC19" s="14"/>
-      <c r="AD19" s="14"/>
+      <c r="A19" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19">
+        <v>2004</v>
+      </c>
+      <c r="C19">
+        <v>21</v>
+      </c>
+      <c r="D19">
+        <v>157.47999999999999</v>
+      </c>
+      <c r="E19">
+        <v>51</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="I19" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="J19" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="K19">
+        <v>8.08</v>
+      </c>
+      <c r="L19">
+        <v>2.58</v>
+      </c>
+      <c r="M19">
+        <v>0.42</v>
+      </c>
+      <c r="N19">
+        <v>0.1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0.3</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>7</v>
+      </c>
+      <c r="S19">
+        <v>1.3</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>5</v>
+      </c>
+      <c r="V19" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="W19" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="X19" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y19" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z19" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA19" s="14">
+        <v>1</v>
+      </c>
+      <c r="AB19" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC19" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD19" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE19">
+        <v>11</v>
+      </c>
+      <c r="AF19">
+        <v>21</v>
+      </c>
     </row>
     <row r="20" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="V20" s="16"/>
-      <c r="W20" s="16"/>
-      <c r="X20" s="16"/>
-      <c r="Y20" s="16"/>
-      <c r="Z20" s="16"/>
-      <c r="AA20" s="16"/>
-      <c r="AB20" s="16"/>
-      <c r="AC20" s="16"/>
-      <c r="AD20" s="16"/>
+      <c r="A20" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20">
+        <v>2005</v>
+      </c>
+      <c r="C20">
+        <v>20</v>
+      </c>
+      <c r="D20">
+        <v>154.94</v>
+      </c>
+      <c r="E20">
+        <v>45</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H20" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="I20" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="J20" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="K20">
+        <v>7.22</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>1.06</v>
+      </c>
+      <c r="N20">
+        <v>1.03</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>8</v>
+      </c>
+      <c r="S20">
+        <v>0.3</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>5</v>
+      </c>
+      <c r="V20" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="W20" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="X20" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y20" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z20" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA20" s="16">
+        <v>4</v>
+      </c>
+      <c r="AB20" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC20" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD20" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE20">
+        <v>12</v>
+      </c>
+      <c r="AF20">
+        <v>33</v>
+      </c>
     </row>
     <row r="21" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="V21" s="14"/>
-      <c r="W21" s="14"/>
-      <c r="X21" s="14"/>
-      <c r="Y21" s="14"/>
-      <c r="Z21" s="14"/>
-      <c r="AA21" s="14"/>
-      <c r="AB21" s="14"/>
-      <c r="AC21" s="14"/>
-      <c r="AD21" s="14"/>
+      <c r="A21" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21">
+        <v>2004</v>
+      </c>
+      <c r="C21">
+        <v>21</v>
+      </c>
+      <c r="D21">
+        <v>162.56</v>
+      </c>
+      <c r="E21">
+        <v>48</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="I21" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="J21" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="K21">
+        <v>10.48</v>
+      </c>
+      <c r="L21">
+        <v>1.4</v>
+      </c>
+      <c r="M21">
+        <v>0.21</v>
+      </c>
+      <c r="N21">
+        <v>0.15</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0.11</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>7</v>
+      </c>
+      <c r="S21">
+        <v>0.3</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>5</v>
+      </c>
+      <c r="V21" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="W21" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="X21" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y21" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z21" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA21" s="14">
+        <v>2</v>
+      </c>
+      <c r="AB21" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC21" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD21" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE21">
+        <v>1</v>
+      </c>
+      <c r="AF21">
+        <v>47</v>
+      </c>
     </row>
     <row r="22" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="V22" s="16"/>
-      <c r="W22" s="16"/>
-      <c r="X22" s="16"/>
-      <c r="Y22" s="16"/>
-      <c r="Z22" s="16"/>
-      <c r="AA22" s="16"/>
-      <c r="AB22" s="16"/>
-      <c r="AC22" s="16"/>
-      <c r="AD22" s="16"/>
+      <c r="A22" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22">
+        <v>2005</v>
+      </c>
+      <c r="C22">
+        <v>20</v>
+      </c>
+      <c r="D22">
+        <v>157.47999999999999</v>
+      </c>
+      <c r="E22">
+        <v>47</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H22" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="I22" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="J22" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="K22">
+        <v>8.19</v>
+      </c>
+      <c r="L22">
+        <v>4.03</v>
+      </c>
+      <c r="M22">
+        <v>0.1</v>
+      </c>
+      <c r="N22">
+        <v>2.34</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0.08</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>8</v>
+      </c>
+      <c r="S22">
+        <v>0.3</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>4.75</v>
+      </c>
+      <c r="V22" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="W22" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="X22" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y22" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z22" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA22" s="16">
+        <v>1</v>
+      </c>
+      <c r="AB22" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC22" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD22" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE22">
+        <v>11</v>
+      </c>
+      <c r="AF22">
+        <v>32</v>
+      </c>
     </row>
     <row r="23" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A23" s="13"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="V23" s="14"/>
-      <c r="W23" s="14"/>
-      <c r="X23" s="14"/>
-      <c r="Y23" s="14"/>
-      <c r="Z23" s="14"/>
-      <c r="AA23" s="14"/>
-      <c r="AB23" s="14"/>
-      <c r="AC23" s="14"/>
-      <c r="AD23" s="14"/>
+      <c r="A23" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23">
+        <v>2004</v>
+      </c>
+      <c r="C23">
+        <v>21</v>
+      </c>
+      <c r="D23">
+        <v>154.94</v>
+      </c>
+      <c r="E23">
+        <v>38</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="I23" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="J23" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="K23">
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="L23">
+        <v>2.13</v>
+      </c>
+      <c r="M23">
+        <v>3.5</v>
+      </c>
+      <c r="N23">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0.05</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>6.5</v>
+      </c>
+      <c r="S23">
+        <v>0.2</v>
+      </c>
+      <c r="T23">
+        <v>3.4</v>
+      </c>
+      <c r="U23">
+        <v>5</v>
+      </c>
+      <c r="V23" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="W23" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="X23" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y23" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z23" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA23" s="14">
+        <v>3</v>
+      </c>
+      <c r="AB23" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC23" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD23" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE23">
+        <v>1</v>
+      </c>
+      <c r="AF23">
+        <v>57</v>
+      </c>
     </row>
     <row r="24" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="V24" s="16"/>
-      <c r="W24" s="16"/>
-      <c r="X24" s="16"/>
-      <c r="Y24" s="16"/>
-      <c r="Z24" s="16"/>
-      <c r="AA24" s="16"/>
-      <c r="AB24" s="16"/>
-      <c r="AC24" s="16"/>
-      <c r="AD24" s="16"/>
+      <c r="A24" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24">
+        <v>2005</v>
+      </c>
+      <c r="C24">
+        <v>20</v>
+      </c>
+      <c r="D24">
+        <v>152.4</v>
+      </c>
+      <c r="E24">
+        <v>34</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H24" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="I24" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="J24" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="K24">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="L24">
+        <v>0.33</v>
+      </c>
+      <c r="M24">
+        <v>3.03</v>
+      </c>
+      <c r="N24">
+        <v>0.05</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>7.5</v>
+      </c>
+      <c r="S24">
+        <v>1</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>3.92</v>
+      </c>
+      <c r="V24" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="W24" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="X24" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y24" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z24" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA24" s="16">
+        <v>2</v>
+      </c>
+      <c r="AB24" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC24" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD24" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE24">
+        <v>2</v>
+      </c>
+      <c r="AF24">
+        <v>71</v>
+      </c>
     </row>
     <row r="25" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="V25" s="14"/>
-      <c r="W25" s="14"/>
-      <c r="X25" s="14"/>
-      <c r="Y25" s="14"/>
-      <c r="Z25" s="14"/>
-      <c r="AA25" s="14"/>
-      <c r="AB25" s="14"/>
-      <c r="AC25" s="14"/>
-      <c r="AD25" s="14"/>
+      <c r="A25" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25">
+        <v>2001</v>
+      </c>
+      <c r="C25">
+        <v>24</v>
+      </c>
+      <c r="D25">
+        <v>157.47999999999999</v>
+      </c>
+      <c r="E25">
+        <v>63</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="I25" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="J25" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="K25">
+        <v>3.09</v>
+      </c>
+      <c r="L25">
+        <v>1.38</v>
+      </c>
+      <c r="M25">
+        <v>0.05</v>
+      </c>
+      <c r="N25">
+        <v>1.5</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>8</v>
+      </c>
+      <c r="S25">
+        <v>0.3</v>
+      </c>
+      <c r="T25">
+        <v>3.24</v>
+      </c>
+      <c r="U25">
+        <v>5</v>
+      </c>
+      <c r="V25" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="W25" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="X25" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y25" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z25" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA25" s="14">
+        <v>2</v>
+      </c>
+      <c r="AB25" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC25" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD25" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE25">
+        <v>2</v>
+      </c>
+      <c r="AF25">
+        <v>18</v>
+      </c>
     </row>
     <row r="26" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="V26" s="16"/>
-      <c r="W26" s="16"/>
-      <c r="X26" s="16"/>
-      <c r="Y26" s="16"/>
-      <c r="Z26" s="16"/>
-      <c r="AA26" s="16"/>
-      <c r="AB26" s="16"/>
-      <c r="AC26" s="16"/>
-      <c r="AD26" s="16"/>
+      <c r="A26" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26">
+        <v>2005</v>
+      </c>
+      <c r="C26">
+        <v>20</v>
+      </c>
+      <c r="D26">
+        <v>162.56</v>
+      </c>
+      <c r="E26">
+        <v>58</v>
+      </c>
+      <c r="G26" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H26" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="I26" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="J26" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="K26">
+        <v>6.25</v>
+      </c>
+      <c r="L26">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="M26">
+        <v>1.58</v>
+      </c>
+      <c r="N26">
+        <v>1.45</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0.05</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>7</v>
+      </c>
+      <c r="S26">
+        <v>0.3</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>5</v>
+      </c>
+      <c r="V26" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="W26" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="X26" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y26" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z26" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA26" s="16">
+        <v>2</v>
+      </c>
+      <c r="AB26" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC26" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD26" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE26">
+        <v>2</v>
+      </c>
+      <c r="AF26">
+        <v>28</v>
+      </c>
     </row>
     <row r="27" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="13"/>

--- a/KeyaSocialMedia.xlsx
+++ b/KeyaSocialMedia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CD43B9C-920A-4CBC-8942-FF40013C3F2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2955EE1A-753F-44C1-B316-CE4D84F3CD2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="62">
   <si>
     <t>GENDER</t>
   </si>
@@ -171,9 +171,6 @@
     <t>Agri</t>
   </si>
   <si>
-    <t>1,2</t>
-  </si>
-  <si>
     <t>Fish</t>
   </si>
   <si>
@@ -204,22 +201,22 @@
     <t>avarage</t>
   </si>
   <si>
-    <t>1,1</t>
-  </si>
-  <si>
-    <t>2,2</t>
-  </si>
-  <si>
     <t>Life Science</t>
   </si>
   <si>
     <t>Social Science</t>
   </si>
   <si>
-    <t>4,1</t>
+    <t>Stress</t>
   </si>
   <si>
-    <t>Stress</t>
+    <t>Engineering</t>
+  </si>
+  <si>
+    <t>BBA</t>
+  </si>
+  <si>
+    <t>fish</t>
   </si>
 </sst>
 </file>
@@ -759,9 +756,9 @@
   </sheetPr>
   <dimension ref="A1:AF1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1017,7 +1014,7 @@
         <v>33</v>
       </c>
       <c r="AD3" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AE3" s="11">
         <v>3</v>
@@ -1055,7 +1052,7 @@
         <v>37</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K4" s="6">
         <v>5.57</v>
@@ -1126,7 +1123,7 @@
     </row>
     <row r="5" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" s="11">
         <v>2000</v>
@@ -1153,7 +1150,7 @@
         <v>37</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K5" s="11">
         <v>4.17</v>
@@ -1213,7 +1210,7 @@
         <v>40</v>
       </c>
       <c r="AD5" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AE5" s="11">
         <v>12.3</v>
@@ -1251,7 +1248,7 @@
         <v>37</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K6" s="6">
         <v>2.19</v>
@@ -1299,7 +1296,7 @@
         <v>42</v>
       </c>
       <c r="Z6" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AA6" s="7">
         <v>1</v>
@@ -1343,13 +1340,13 @@
         <v>1</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I7" s="14" t="s">
         <v>37</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K7">
         <v>6</v>
@@ -1385,7 +1382,7 @@
         <v>5</v>
       </c>
       <c r="V7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W7" t="s">
         <v>40</v>
@@ -1447,7 +1444,7 @@
         <v>37</v>
       </c>
       <c r="J8" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K8">
         <v>8</v>
@@ -1495,7 +1492,7 @@
         <v>44</v>
       </c>
       <c r="Z8" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AA8" s="16">
         <v>3</v>
@@ -1545,7 +1542,7 @@
         <v>37</v>
       </c>
       <c r="J9" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K9">
         <v>11.35</v>
@@ -1593,7 +1590,7 @@
         <v>33</v>
       </c>
       <c r="Z9" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AA9" s="14">
         <v>3</v>
@@ -1643,7 +1640,7 @@
         <v>37</v>
       </c>
       <c r="J10" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K10">
         <v>9.1300000000000008</v>
@@ -1691,7 +1688,7 @@
         <v>44</v>
       </c>
       <c r="Z10" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AA10" s="16">
         <v>3</v>
@@ -1703,7 +1700,7 @@
         <v>44</v>
       </c>
       <c r="AD10" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AE10">
         <v>2</v>
@@ -1735,13 +1732,13 @@
         <v>1</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I11" s="14" t="s">
         <v>37</v>
       </c>
       <c r="J11" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K11">
         <v>8.0299999999999994</v>
@@ -1789,7 +1786,7 @@
         <v>33</v>
       </c>
       <c r="Z11" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AA11" s="14" t="s">
         <v>40</v>
@@ -1839,7 +1836,7 @@
         <v>37</v>
       </c>
       <c r="J12" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K12">
         <v>8.09</v>
@@ -1875,7 +1872,7 @@
         <v>5</v>
       </c>
       <c r="V12" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W12" s="16" t="s">
         <v>33</v>
@@ -1887,7 +1884,7 @@
         <v>42</v>
       </c>
       <c r="Z12" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AA12" s="16" t="s">
         <v>40</v>
@@ -1937,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="J13" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K13">
         <v>6.18</v>
@@ -1973,7 +1970,7 @@
         <v>5</v>
       </c>
       <c r="V13" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W13" s="14" t="s">
         <v>33</v>
@@ -1985,7 +1982,7 @@
         <v>33</v>
       </c>
       <c r="Z13" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AA13" s="14">
         <v>4</v>
@@ -2029,13 +2026,13 @@
         <v>2</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I14" s="16" t="s">
         <v>37</v>
       </c>
       <c r="J14" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K14">
         <v>8</v>
@@ -2071,7 +2068,7 @@
         <v>5</v>
       </c>
       <c r="V14" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W14" s="16" t="s">
         <v>33</v>
@@ -2083,7 +2080,7 @@
         <v>33</v>
       </c>
       <c r="Z14" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AA14" s="16">
         <v>2</v>
@@ -2133,7 +2130,7 @@
         <v>37</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K15">
         <v>12.18</v>
@@ -2181,7 +2178,7 @@
         <v>33</v>
       </c>
       <c r="Z15" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AA15" s="14">
         <v>2</v>
@@ -2193,7 +2190,7 @@
         <v>33</v>
       </c>
       <c r="AD15" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AE15" s="19">
         <v>8.3333333333333329E-2</v>
@@ -2221,17 +2218,17 @@
       <c r="F16">
         <v>22.7</v>
       </c>
-      <c r="G16" s="16" t="s">
+      <c r="G16" s="16">
+        <v>2</v>
+      </c>
+      <c r="H16" s="16" t="s">
         <v>46</v>
-      </c>
-      <c r="H16" s="16" t="s">
-        <v>47</v>
       </c>
       <c r="I16" s="16" t="s">
         <v>37</v>
       </c>
       <c r="J16" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K16">
         <v>7.55</v>
@@ -2267,7 +2264,7 @@
         <v>5</v>
       </c>
       <c r="V16" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W16" s="16" t="s">
         <v>33</v>
@@ -2279,7 +2276,7 @@
         <v>42</v>
       </c>
       <c r="Z16" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AA16" s="16">
         <v>3</v>
@@ -2319,8 +2316,8 @@
       <c r="F17">
         <v>21.1</v>
       </c>
-      <c r="G17" s="14" t="s">
-        <v>46</v>
+      <c r="G17" s="14">
+        <v>2</v>
       </c>
       <c r="H17" s="14" t="s">
         <v>45</v>
@@ -2329,7 +2326,7 @@
         <v>37</v>
       </c>
       <c r="J17" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K17">
         <v>7.3</v>
@@ -2389,7 +2386,7 @@
         <v>33</v>
       </c>
       <c r="AD17" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AE17" s="19">
         <v>4.1666666666666664E-2</v>
@@ -2414,8 +2411,8 @@
       <c r="E18">
         <v>53</v>
       </c>
-      <c r="G18" s="16" t="s">
-        <v>46</v>
+      <c r="G18" s="16">
+        <v>2</v>
       </c>
       <c r="H18" s="16" t="s">
         <v>45</v>
@@ -2424,7 +2421,7 @@
         <v>37</v>
       </c>
       <c r="J18" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K18">
         <v>8.06</v>
@@ -2509,8 +2506,8 @@
       <c r="E19">
         <v>51</v>
       </c>
-      <c r="G19" s="14" t="s">
-        <v>46</v>
+      <c r="G19" s="14">
+        <v>2</v>
       </c>
       <c r="H19" s="14" t="s">
         <v>45</v>
@@ -2519,7 +2516,7 @@
         <v>37</v>
       </c>
       <c r="J19" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K19">
         <v>8.08</v>
@@ -2567,7 +2564,7 @@
         <v>33</v>
       </c>
       <c r="Z19" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AA19" s="14">
         <v>1</v>
@@ -2604,8 +2601,8 @@
       <c r="E20">
         <v>45</v>
       </c>
-      <c r="G20" s="16" t="s">
-        <v>57</v>
+      <c r="G20" s="16">
+        <v>1</v>
       </c>
       <c r="H20" s="16" t="s">
         <v>39</v>
@@ -2614,7 +2611,7 @@
         <v>37</v>
       </c>
       <c r="J20" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K20">
         <v>7.22</v>
@@ -2662,7 +2659,7 @@
         <v>33</v>
       </c>
       <c r="Z20" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AA20" s="16">
         <v>4</v>
@@ -2699,8 +2696,8 @@
       <c r="E21">
         <v>48</v>
       </c>
-      <c r="G21" s="14" t="s">
-        <v>57</v>
+      <c r="G21" s="14">
+        <v>1</v>
       </c>
       <c r="H21" s="14" t="s">
         <v>39</v>
@@ -2709,7 +2706,7 @@
         <v>37</v>
       </c>
       <c r="J21" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K21">
         <v>10.48</v>
@@ -2757,7 +2754,7 @@
         <v>33</v>
       </c>
       <c r="Z21" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AA21" s="14">
         <v>2</v>
@@ -2769,7 +2766,7 @@
         <v>33</v>
       </c>
       <c r="AD21" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AE21">
         <v>1</v>
@@ -2794,8 +2791,8 @@
       <c r="E22">
         <v>47</v>
       </c>
-      <c r="G22" s="16" t="s">
-        <v>57</v>
+      <c r="G22" s="16">
+        <v>1</v>
       </c>
       <c r="H22" s="16" t="s">
         <v>39</v>
@@ -2804,7 +2801,7 @@
         <v>37</v>
       </c>
       <c r="J22" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K22">
         <v>8.19</v>
@@ -2852,7 +2849,7 @@
         <v>33</v>
       </c>
       <c r="Z22" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AA22" s="16">
         <v>1</v>
@@ -2889,17 +2886,17 @@
       <c r="E23">
         <v>38</v>
       </c>
-      <c r="G23" s="14" t="s">
-        <v>58</v>
+      <c r="G23" s="14">
+        <v>4</v>
       </c>
       <c r="H23" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I23" s="14" t="s">
         <v>37</v>
       </c>
       <c r="J23" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K23">
         <v>9.4499999999999993</v>
@@ -2959,7 +2956,7 @@
         <v>42</v>
       </c>
       <c r="AD23" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AE23">
         <v>1</v>
@@ -2984,17 +2981,17 @@
       <c r="E24">
         <v>34</v>
       </c>
-      <c r="G24" s="16" t="s">
+      <c r="G24" s="16">
+        <v>1</v>
+      </c>
+      <c r="H24" s="16" t="s">
         <v>57</v>
-      </c>
-      <c r="H24" s="16" t="s">
-        <v>60</v>
       </c>
       <c r="I24" s="16" t="s">
         <v>37</v>
       </c>
       <c r="J24" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K24">
         <v>8.2899999999999991</v>
@@ -3042,7 +3039,7 @@
         <v>42</v>
       </c>
       <c r="Z24" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AA24" s="16">
         <v>2</v>
@@ -3079,17 +3076,17 @@
       <c r="E25">
         <v>63</v>
       </c>
-      <c r="G25" s="14" t="s">
-        <v>61</v>
+      <c r="G25" s="14">
+        <v>7</v>
       </c>
       <c r="H25" s="14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I25" s="14" t="s">
         <v>37</v>
       </c>
       <c r="J25" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K25">
         <v>3.09</v>
@@ -3137,7 +3134,7 @@
         <v>42</v>
       </c>
       <c r="Z25" s="14" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="AA25" s="14">
         <v>2</v>
@@ -3174,8 +3171,8 @@
       <c r="E26">
         <v>58</v>
       </c>
-      <c r="G26" s="16" t="s">
-        <v>57</v>
+      <c r="G26" s="16">
+        <v>1</v>
       </c>
       <c r="H26" s="16" t="s">
         <v>39</v>
@@ -3184,7 +3181,7 @@
         <v>37</v>
       </c>
       <c r="J26" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K26">
         <v>6.25</v>
@@ -3232,7 +3229,7 @@
         <v>33</v>
       </c>
       <c r="Z26" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AA26" s="16">
         <v>2</v>
@@ -3254,262 +3251,1499 @@
       </c>
     </row>
     <row r="27" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A27" s="13"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-      <c r="V27" s="14"/>
-      <c r="W27" s="14"/>
-      <c r="X27" s="14"/>
-      <c r="Y27" s="14"/>
-      <c r="Z27" s="14"/>
-      <c r="AA27" s="14"/>
-      <c r="AB27" s="14"/>
-      <c r="AC27" s="14"/>
-      <c r="AD27" s="14"/>
+      <c r="A27" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27">
+        <v>2002</v>
+      </c>
+      <c r="C27">
+        <v>23</v>
+      </c>
+      <c r="D27">
+        <v>157.47999999999999</v>
+      </c>
+      <c r="E27">
+        <v>65</v>
+      </c>
+      <c r="G27" s="14">
+        <v>5</v>
+      </c>
+      <c r="H27" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="I27" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="J27" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="K27">
+        <v>9.2899999999999991</v>
+      </c>
+      <c r="L27">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="M27">
+        <v>0.32</v>
+      </c>
+      <c r="N27">
+        <v>2.37</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0.4</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>8</v>
+      </c>
+      <c r="S27">
+        <v>0.3</v>
+      </c>
+      <c r="T27">
+        <v>3.74</v>
+      </c>
+      <c r="U27">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="V27" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="W27" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="X27" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y27" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z27" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA27" s="14">
+        <v>3</v>
+      </c>
+      <c r="AB27" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC27" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD27" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE27">
+        <v>12</v>
+      </c>
+      <c r="AF27">
+        <v>30</v>
+      </c>
     </row>
     <row r="28" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="V28" s="16"/>
-      <c r="W28" s="16"/>
-      <c r="X28" s="16"/>
-      <c r="Y28" s="16"/>
-      <c r="Z28" s="16"/>
-      <c r="AA28" s="16"/>
-      <c r="AB28" s="16"/>
-      <c r="AC28" s="16"/>
-      <c r="AD28" s="16"/>
+      <c r="A28" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28">
+        <v>2002</v>
+      </c>
+      <c r="C28">
+        <v>23</v>
+      </c>
+      <c r="D28">
+        <v>157.47999999999999</v>
+      </c>
+      <c r="E28">
+        <v>50</v>
+      </c>
+      <c r="G28" s="16">
+        <v>5</v>
+      </c>
+      <c r="H28" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="I28" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="J28" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="K28">
+        <v>6.49</v>
+      </c>
+      <c r="L28">
+        <v>2.27</v>
+      </c>
+      <c r="M28">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="N28">
+        <v>0.4</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>2.08</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>6</v>
+      </c>
+      <c r="S28">
+        <v>1</v>
+      </c>
+      <c r="T28">
+        <v>3.78</v>
+      </c>
+      <c r="U28">
+        <v>5</v>
+      </c>
+      <c r="V28" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="W28" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="X28" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y28" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z28" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA28" s="16">
+        <v>1</v>
+      </c>
+      <c r="AB28" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC28" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD28" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE28">
+        <v>1</v>
+      </c>
+      <c r="AF28">
+        <v>24</v>
+      </c>
     </row>
     <row r="29" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A29" s="13"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
-      <c r="V29" s="14"/>
-      <c r="W29" s="14"/>
-      <c r="X29" s="14"/>
-      <c r="Y29" s="14"/>
-      <c r="Z29" s="14"/>
-      <c r="AA29" s="14"/>
-      <c r="AB29" s="14"/>
-      <c r="AC29" s="14"/>
-      <c r="AD29" s="14"/>
+      <c r="A29" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29">
+        <v>2002</v>
+      </c>
+      <c r="C29">
+        <v>23</v>
+      </c>
+      <c r="D29">
+        <v>162.56</v>
+      </c>
+      <c r="E29">
+        <v>45</v>
+      </c>
+      <c r="G29" s="14">
+        <v>5</v>
+      </c>
+      <c r="H29" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="I29" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="J29" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="K29">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>2</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0.2</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>6</v>
+      </c>
+      <c r="S29">
+        <v>1.3</v>
+      </c>
+      <c r="T29">
+        <v>3.72</v>
+      </c>
+      <c r="U29">
+        <v>5</v>
+      </c>
+      <c r="V29" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="W29" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="X29" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y29" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z29" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA29" s="14">
+        <v>1</v>
+      </c>
+      <c r="AB29" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC29" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD29" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE29">
+        <v>12</v>
+      </c>
+      <c r="AF29">
+        <v>18</v>
+      </c>
     </row>
     <row r="30" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A30" s="15"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="V30" s="16"/>
-      <c r="W30" s="16"/>
-      <c r="X30" s="16"/>
-      <c r="Y30" s="16"/>
-      <c r="Z30" s="16"/>
-      <c r="AA30" s="16"/>
-      <c r="AB30" s="16"/>
-      <c r="AC30" s="16"/>
-      <c r="AD30" s="16"/>
+      <c r="A30" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30">
+        <v>2002</v>
+      </c>
+      <c r="C30">
+        <v>22</v>
+      </c>
+      <c r="D30">
+        <v>152.4</v>
+      </c>
+      <c r="E30">
+        <v>45</v>
+      </c>
+      <c r="G30" s="16">
+        <v>5</v>
+      </c>
+      <c r="H30" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="I30" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="J30" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="K30">
+        <v>6.26</v>
+      </c>
+      <c r="L30">
+        <v>2.15</v>
+      </c>
+      <c r="M30">
+        <v>0.05</v>
+      </c>
+      <c r="N30">
+        <v>0.52</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0.3</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>8</v>
+      </c>
+      <c r="S30">
+        <v>5</v>
+      </c>
+      <c r="T30">
+        <v>3.62</v>
+      </c>
+      <c r="U30">
+        <v>5</v>
+      </c>
+      <c r="V30" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="W30" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="X30" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y30" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z30" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA30" s="16">
+        <v>2</v>
+      </c>
+      <c r="AB30" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC30" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD30" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE30">
+        <v>11</v>
+      </c>
+      <c r="AF30">
+        <v>18</v>
+      </c>
     </row>
     <row r="31" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" s="13"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
-      <c r="V31" s="14"/>
-      <c r="W31" s="14"/>
-      <c r="X31" s="14"/>
-      <c r="Y31" s="14"/>
-      <c r="Z31" s="14"/>
-      <c r="AA31" s="14"/>
-      <c r="AB31" s="14"/>
-      <c r="AC31" s="14"/>
-      <c r="AD31" s="14"/>
+      <c r="B31">
+        <v>2002</v>
+      </c>
+      <c r="C31">
+        <v>22</v>
+      </c>
+      <c r="D31">
+        <v>152.4</v>
+      </c>
+      <c r="E31">
+        <v>45</v>
+      </c>
+      <c r="G31" s="14">
+        <v>5</v>
+      </c>
+      <c r="H31" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="I31" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="J31" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="K31">
+        <v>6.26</v>
+      </c>
+      <c r="L31">
+        <v>2.15</v>
+      </c>
+      <c r="M31">
+        <v>0.05</v>
+      </c>
+      <c r="N31">
+        <v>0.52</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0.3</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>8</v>
+      </c>
+      <c r="S31">
+        <v>5</v>
+      </c>
+      <c r="T31">
+        <v>3.68</v>
+      </c>
+      <c r="U31">
+        <v>5</v>
+      </c>
+      <c r="V31" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="W31" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="X31" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y31" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z31" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA31" s="14">
+        <v>2</v>
+      </c>
+      <c r="AB31" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC31" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD31" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE31">
+        <v>11</v>
+      </c>
+      <c r="AF31">
+        <v>19</v>
+      </c>
     </row>
     <row r="32" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="15"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-      <c r="V32" s="16"/>
-      <c r="W32" s="16"/>
-      <c r="X32" s="16"/>
-      <c r="Y32" s="16"/>
-      <c r="Z32" s="16"/>
-      <c r="AA32" s="16"/>
-      <c r="AB32" s="16"/>
-      <c r="AC32" s="16"/>
-      <c r="AD32" s="16"/>
-    </row>
-    <row r="33" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>2005</v>
+      </c>
+      <c r="C32">
+        <v>20</v>
+      </c>
+      <c r="D32">
+        <v>154.94</v>
+      </c>
+      <c r="E32">
+        <v>47</v>
+      </c>
+      <c r="G32" s="16">
+        <v>2</v>
+      </c>
+      <c r="H32" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="I32" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="J32" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="K32">
+        <v>7.42</v>
+      </c>
+      <c r="L32">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="M32">
+        <v>0.33</v>
+      </c>
+      <c r="N32">
+        <v>3.02</v>
+      </c>
+      <c r="O32">
+        <v>0.09</v>
+      </c>
+      <c r="P32">
+        <v>0.09</v>
+      </c>
+      <c r="Q32">
+        <v>1.04</v>
+      </c>
+      <c r="R32">
+        <v>9</v>
+      </c>
+      <c r="S32">
+        <v>0.3</v>
+      </c>
+      <c r="U32">
+        <v>5</v>
+      </c>
+      <c r="V32" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="W32" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="X32" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y32" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z32" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA32" s="16">
+        <v>2</v>
+      </c>
+      <c r="AB32" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC32" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD32" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE32">
+        <v>12</v>
+      </c>
+      <c r="AF32">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="13"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="14"/>
-      <c r="V33" s="14"/>
-      <c r="W33" s="14"/>
-      <c r="X33" s="14"/>
-      <c r="Y33" s="14"/>
-      <c r="Z33" s="14"/>
-      <c r="AA33" s="14"/>
-      <c r="AB33" s="14"/>
-      <c r="AC33" s="14"/>
-      <c r="AD33" s="14"/>
-    </row>
-    <row r="34" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>2003</v>
+      </c>
+      <c r="C33">
+        <v>23</v>
+      </c>
+      <c r="D33">
+        <v>162.56</v>
+      </c>
+      <c r="E33">
+        <v>53</v>
+      </c>
+      <c r="G33" s="14">
+        <v>5</v>
+      </c>
+      <c r="H33" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="I33" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="J33" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="K33">
+        <v>6.47</v>
+      </c>
+      <c r="L33">
+        <v>4.09</v>
+      </c>
+      <c r="M33">
+        <v>0.25</v>
+      </c>
+      <c r="N33">
+        <v>0.05</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0.5</v>
+      </c>
+      <c r="Q33">
+        <v>0.1</v>
+      </c>
+      <c r="R33">
+        <v>8</v>
+      </c>
+      <c r="S33">
+        <v>0.3</v>
+      </c>
+      <c r="T33">
+        <v>3.91</v>
+      </c>
+      <c r="U33">
+        <v>5</v>
+      </c>
+      <c r="V33" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="W33" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="X33" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y33" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z33" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA33" s="14">
+        <v>2</v>
+      </c>
+      <c r="AB33" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC33" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD33" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE33">
+        <v>12</v>
+      </c>
+      <c r="AF33">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A34" s="15"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
-      <c r="V34" s="16"/>
-      <c r="W34" s="16"/>
-      <c r="X34" s="16"/>
-      <c r="Y34" s="16"/>
-      <c r="Z34" s="16"/>
-      <c r="AA34" s="16"/>
-      <c r="AB34" s="16"/>
-      <c r="AC34" s="16"/>
-      <c r="AD34" s="16"/>
-    </row>
-    <row r="35" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>2003</v>
+      </c>
+      <c r="C34">
+        <v>22</v>
+      </c>
+      <c r="D34">
+        <v>152.4</v>
+      </c>
+      <c r="E34">
+        <v>40</v>
+      </c>
+      <c r="G34" s="16">
+        <v>5</v>
+      </c>
+      <c r="H34" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="I34" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="J34" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="K34">
+        <v>4.42</v>
+      </c>
+      <c r="L34">
+        <v>1.06</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>1.08</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0.05</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>5.5</v>
+      </c>
+      <c r="S34">
+        <v>0.1</v>
+      </c>
+      <c r="T34">
+        <v>3.07</v>
+      </c>
+      <c r="U34">
+        <v>5</v>
+      </c>
+      <c r="V34" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="W34" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="X34" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y34" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z34" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA34" s="16">
+        <v>3</v>
+      </c>
+      <c r="AB34" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC34" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD34" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE34">
+        <v>12</v>
+      </c>
+      <c r="AF34">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="13"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="14"/>
-      <c r="V35" s="14"/>
-      <c r="W35" s="14"/>
-      <c r="X35" s="14"/>
-      <c r="Y35" s="14"/>
-      <c r="Z35" s="14"/>
-      <c r="AA35" s="14"/>
-      <c r="AB35" s="14"/>
-      <c r="AC35" s="14"/>
-      <c r="AD35" s="14"/>
-    </row>
-    <row r="36" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>2005</v>
+      </c>
+      <c r="C35">
+        <v>20</v>
+      </c>
+      <c r="D35">
+        <v>157.47999999999999</v>
+      </c>
+      <c r="E35">
+        <v>60</v>
+      </c>
+      <c r="G35" s="14">
+        <v>1</v>
+      </c>
+      <c r="H35" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="I35" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="J35" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="K35">
+        <v>9.18</v>
+      </c>
+      <c r="L35">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="M35">
+        <v>1.37</v>
+      </c>
+      <c r="N35">
+        <v>3</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0.18</v>
+      </c>
+      <c r="Q35">
+        <v>0.5</v>
+      </c>
+      <c r="R35">
+        <v>7.5</v>
+      </c>
+      <c r="S35">
+        <v>0.3</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>5</v>
+      </c>
+      <c r="V35" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="W35" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="X35" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y35" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z35" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA35" s="14">
+        <v>3</v>
+      </c>
+      <c r="AB35" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC35" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD35" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE35">
+        <v>12.3</v>
+      </c>
+      <c r="AF35">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="36" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A36" s="15"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="16"/>
-      <c r="V36" s="16"/>
-      <c r="W36" s="16"/>
-      <c r="X36" s="16"/>
-      <c r="Y36" s="16"/>
-      <c r="Z36" s="16"/>
-      <c r="AA36" s="16"/>
-      <c r="AB36" s="16"/>
-      <c r="AC36" s="16"/>
-      <c r="AD36" s="16"/>
-    </row>
-    <row r="37" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>2005</v>
+      </c>
+      <c r="C36">
+        <v>20</v>
+      </c>
+      <c r="D36">
+        <v>152.4</v>
+      </c>
+      <c r="E36">
+        <v>45</v>
+      </c>
+      <c r="G36" s="16">
+        <v>1</v>
+      </c>
+      <c r="H36" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="I36" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="J36" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="K36">
+        <v>9.0399999999999991</v>
+      </c>
+      <c r="L36">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="M36">
+        <v>0.18</v>
+      </c>
+      <c r="N36">
+        <v>3.17</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>0.27</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>8</v>
+      </c>
+      <c r="S36">
+        <v>0.3</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <v>4.83</v>
+      </c>
+      <c r="V36" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="W36" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="X36" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y36" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z36" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA36" s="16">
+        <v>2</v>
+      </c>
+      <c r="AB36" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC36" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD36" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE36">
+        <v>2</v>
+      </c>
+      <c r="AF36">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A37" s="13"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="14"/>
-      <c r="V37" s="14"/>
-      <c r="W37" s="14"/>
-      <c r="X37" s="14"/>
-      <c r="Y37" s="14"/>
-      <c r="Z37" s="14"/>
-      <c r="AA37" s="14"/>
-      <c r="AB37" s="14"/>
-      <c r="AC37" s="14"/>
-      <c r="AD37" s="14"/>
-    </row>
-    <row r="38" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>2005</v>
+      </c>
+      <c r="C37">
+        <v>20</v>
+      </c>
+      <c r="D37">
+        <v>165.1</v>
+      </c>
+      <c r="E37">
+        <v>60</v>
+      </c>
+      <c r="G37" s="14">
+        <v>2</v>
+      </c>
+      <c r="H37" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="I37" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="J37" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="K37">
+        <v>8.1300000000000008</v>
+      </c>
+      <c r="L37">
+        <v>1.57</v>
+      </c>
+      <c r="M37">
+        <v>2.25</v>
+      </c>
+      <c r="N37">
+        <v>0.25</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>1.35</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>8</v>
+      </c>
+      <c r="S37">
+        <v>0.4</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <v>4.92</v>
+      </c>
+      <c r="V37" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="W37" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="X37" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y37" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z37" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA37" s="14">
+        <v>1</v>
+      </c>
+      <c r="AB37" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC37" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD37" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE37">
+        <v>1.3</v>
+      </c>
+      <c r="AF37">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A38" s="15"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="16"/>
-      <c r="J38" s="16"/>
-      <c r="V38" s="16"/>
-      <c r="W38" s="16"/>
-      <c r="X38" s="16"/>
-      <c r="Y38" s="16"/>
-      <c r="Z38" s="16"/>
-      <c r="AA38" s="16"/>
-      <c r="AB38" s="16"/>
-      <c r="AC38" s="16"/>
-      <c r="AD38" s="16"/>
-    </row>
-    <row r="39" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>2005</v>
+      </c>
+      <c r="C38">
+        <v>20</v>
+      </c>
+      <c r="D38">
+        <v>152.4</v>
+      </c>
+      <c r="E38">
+        <v>43</v>
+      </c>
+      <c r="G38" s="16">
+        <v>4</v>
+      </c>
+      <c r="H38" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="I38" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="J38" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="K38">
+        <v>3.58</v>
+      </c>
+      <c r="L38">
+        <v>0.21</v>
+      </c>
+      <c r="M38">
+        <v>0.32</v>
+      </c>
+      <c r="N38">
+        <v>0.27</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>8</v>
+      </c>
+      <c r="S38">
+        <v>0.3</v>
+      </c>
+      <c r="T38">
+        <v>3.47</v>
+      </c>
+      <c r="U38">
+        <v>5</v>
+      </c>
+      <c r="V38" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="W38" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="X38" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y38" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z38" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA38" s="16">
+        <v>3</v>
+      </c>
+      <c r="AB38" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC38" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD38" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE38">
+        <v>2</v>
+      </c>
+      <c r="AF38">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A39" s="13"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="14"/>
-      <c r="J39" s="14"/>
-      <c r="V39" s="14"/>
-      <c r="W39" s="14"/>
-      <c r="X39" s="14"/>
-      <c r="Y39" s="14"/>
-      <c r="Z39" s="14"/>
-      <c r="AA39" s="14"/>
-      <c r="AB39" s="14"/>
-      <c r="AC39" s="14"/>
-      <c r="AD39" s="14"/>
-    </row>
-    <row r="40" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>2003</v>
+      </c>
+      <c r="C39">
+        <v>22</v>
+      </c>
+      <c r="D39">
+        <v>165.1</v>
+      </c>
+      <c r="E39">
+        <v>56</v>
+      </c>
+      <c r="G39" s="14">
+        <v>5</v>
+      </c>
+      <c r="H39" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="I39" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="J39" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="K39">
+        <v>5.31</v>
+      </c>
+      <c r="L39">
+        <v>2.16</v>
+      </c>
+      <c r="M39">
+        <v>1.01</v>
+      </c>
+      <c r="N39">
+        <v>0.24</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>1.06</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <v>7</v>
+      </c>
+      <c r="S39">
+        <v>0.2</v>
+      </c>
+      <c r="T39">
+        <v>3.71</v>
+      </c>
+      <c r="U39">
+        <v>4.92</v>
+      </c>
+      <c r="V39" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="W39" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="X39" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y39" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z39" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA39" s="14">
+        <v>1</v>
+      </c>
+      <c r="AB39" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC39" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD39" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE39">
+        <v>10.3</v>
+      </c>
+      <c r="AF39">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A40" s="15"/>
-      <c r="G40" s="16"/>
-      <c r="H40" s="16"/>
-      <c r="I40" s="16"/>
-      <c r="J40" s="16"/>
-      <c r="V40" s="16"/>
-      <c r="W40" s="16"/>
-      <c r="X40" s="16"/>
-      <c r="Y40" s="16"/>
-      <c r="Z40" s="16"/>
-      <c r="AA40" s="16"/>
-      <c r="AB40" s="16"/>
-      <c r="AC40" s="16"/>
-      <c r="AD40" s="16"/>
-    </row>
-    <row r="41" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>2004</v>
+      </c>
+      <c r="C40">
+        <v>21</v>
+      </c>
+      <c r="D40">
+        <v>157.47999999999999</v>
+      </c>
+      <c r="E40">
+        <v>39</v>
+      </c>
+      <c r="G40" s="16">
+        <v>2</v>
+      </c>
+      <c r="H40" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="I40" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="J40" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="K40">
+        <v>8.14</v>
+      </c>
+      <c r="L40">
+        <v>1.5</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>0.09</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>3.34</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <v>4.5</v>
+      </c>
+      <c r="S40">
+        <v>0.4</v>
+      </c>
+      <c r="T40">
+        <v>0</v>
+      </c>
+      <c r="U40">
+        <v>5</v>
+      </c>
+      <c r="V40" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="W40" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="X40" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y40" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z40" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA40" s="16">
+        <v>3</v>
+      </c>
+      <c r="AB40" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC40" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD40" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE40">
+        <v>3</v>
+      </c>
+      <c r="AF40">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A41" s="13"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="14"/>
-      <c r="J41" s="14"/>
-      <c r="V41" s="14"/>
-      <c r="W41" s="14"/>
-      <c r="X41" s="14"/>
-      <c r="Y41" s="14"/>
-      <c r="Z41" s="14"/>
-      <c r="AA41" s="14"/>
-      <c r="AB41" s="14"/>
-      <c r="AC41" s="14"/>
-      <c r="AD41" s="14"/>
-    </row>
-    <row r="42" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>2003</v>
+      </c>
+      <c r="C41">
+        <v>22</v>
+      </c>
+      <c r="D41">
+        <v>157.47999999999999</v>
+      </c>
+      <c r="E41">
+        <v>68</v>
+      </c>
+      <c r="G41" s="14">
+        <v>2</v>
+      </c>
+      <c r="H41" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="I41" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="J41" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="K41">
+        <v>7.19</v>
+      </c>
+      <c r="L41">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="M41">
+        <v>1.07</v>
+      </c>
+      <c r="N41">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>0.48</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <v>8</v>
+      </c>
+      <c r="S41">
+        <v>0.3</v>
+      </c>
+      <c r="T41">
+        <v>0</v>
+      </c>
+      <c r="U41">
+        <v>5</v>
+      </c>
+      <c r="V41" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="W41" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="X41" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y41" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z41" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA41" s="14">
+        <v>2</v>
+      </c>
+      <c r="AB41" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC41" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD41" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE41">
+        <v>11.3</v>
+      </c>
+      <c r="AF41">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A42" s="15"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="16"/>
-      <c r="I42" s="16"/>
-      <c r="J42" s="16"/>
-      <c r="V42" s="16"/>
-      <c r="W42" s="16"/>
-      <c r="X42" s="16"/>
-      <c r="Y42" s="16"/>
-      <c r="Z42" s="16"/>
-      <c r="AA42" s="16"/>
-      <c r="AB42" s="16"/>
-      <c r="AC42" s="16"/>
-      <c r="AD42" s="16"/>
-    </row>
-    <row r="43" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>2003</v>
+      </c>
+      <c r="C42">
+        <v>23</v>
+      </c>
+      <c r="D42">
+        <v>147.32</v>
+      </c>
+      <c r="E42">
+        <v>36</v>
+      </c>
+      <c r="G42" s="16">
+        <v>4</v>
+      </c>
+      <c r="H42" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="I42" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="J42" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="K42">
+        <v>9.0500000000000007</v>
+      </c>
+      <c r="L42">
+        <v>3.42</v>
+      </c>
+      <c r="M42">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="N42">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="O42">
+        <v>0.2</v>
+      </c>
+      <c r="P42">
+        <v>0.51</v>
+      </c>
+      <c r="Q42">
+        <v>0.05</v>
+      </c>
+      <c r="R42">
+        <v>6</v>
+      </c>
+      <c r="S42">
+        <v>0.3</v>
+      </c>
+      <c r="T42">
+        <v>3.78</v>
+      </c>
+      <c r="U42">
+        <v>4.97</v>
+      </c>
+      <c r="V42" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="W42" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="X42" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y42" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z42" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA42" s="16">
+        <v>3</v>
+      </c>
+      <c r="AB42" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC42" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD42" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE42">
+        <v>2</v>
+      </c>
+      <c r="AF42">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="43" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A43" s="13"/>
       <c r="G43" s="14"/>
       <c r="H43" s="14"/>
@@ -3525,7 +4759,7 @@
       <c r="AC43" s="14"/>
       <c r="AD43" s="14"/>
     </row>
-    <row r="44" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A44" s="15"/>
       <c r="G44" s="16"/>
       <c r="H44" s="16"/>
@@ -3541,7 +4775,7 @@
       <c r="AC44" s="16"/>
       <c r="AD44" s="16"/>
     </row>
-    <row r="45" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A45" s="13"/>
       <c r="G45" s="14"/>
       <c r="H45" s="14"/>
@@ -3557,7 +4791,7 @@
       <c r="AC45" s="14"/>
       <c r="AD45" s="14"/>
     </row>
-    <row r="46" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A46" s="15"/>
       <c r="G46" s="16"/>
       <c r="H46" s="16"/>
@@ -3573,7 +4807,7 @@
       <c r="AC46" s="16"/>
       <c r="AD46" s="16"/>
     </row>
-    <row r="47" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A47" s="13"/>
       <c r="G47" s="14"/>
       <c r="H47" s="14"/>
@@ -3589,7 +4823,7 @@
       <c r="AC47" s="14"/>
       <c r="AD47" s="14"/>
     </row>
-    <row r="48" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A48" s="15"/>
       <c r="G48" s="16"/>
       <c r="H48" s="16"/>

--- a/KeyaSocialMedia.xlsx
+++ b/KeyaSocialMedia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2955EE1A-753F-44C1-B316-CE4D84F3CD2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C788FD7D-F638-48FB-B8EB-EE96BEC0D9D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="63">
   <si>
     <t>GENDER</t>
   </si>
@@ -217,6 +217,9 @@
   </si>
   <si>
     <t>fish</t>
+  </si>
+  <si>
+    <t>Part-time</t>
   </si>
 </sst>
 </file>
@@ -756,9 +759,9 @@
   </sheetPr>
   <dimension ref="A1:AF1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G42" sqref="G42"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3631,7 +3634,9 @@
       </c>
     </row>
     <row r="31" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A31" s="13"/>
+      <c r="A31" s="13" t="s">
+        <v>35</v>
+      </c>
       <c r="B31">
         <v>2002</v>
       </c>
@@ -3724,7 +3729,9 @@
       </c>
     </row>
     <row r="32" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A32" s="15"/>
+      <c r="A32" s="15" t="s">
+        <v>35</v>
+      </c>
       <c r="B32">
         <v>2005</v>
       </c>
@@ -3776,6 +3783,9 @@
       <c r="S32">
         <v>0.3</v>
       </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
       <c r="U32">
         <v>5</v>
       </c>
@@ -3814,7 +3824,9 @@
       </c>
     </row>
     <row r="33" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A33" s="13"/>
+      <c r="A33" s="13" t="s">
+        <v>35</v>
+      </c>
       <c r="B33">
         <v>2003</v>
       </c>
@@ -3907,7 +3919,9 @@
       </c>
     </row>
     <row r="34" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A34" s="15"/>
+      <c r="A34" s="15" t="s">
+        <v>35</v>
+      </c>
       <c r="B34">
         <v>2003</v>
       </c>
@@ -4000,7 +4014,9 @@
       </c>
     </row>
     <row r="35" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A35" s="13"/>
+      <c r="A35" s="13" t="s">
+        <v>35</v>
+      </c>
       <c r="B35">
         <v>2005</v>
       </c>
@@ -4093,7 +4109,9 @@
       </c>
     </row>
     <row r="36" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A36" s="15"/>
+      <c r="A36" s="15" t="s">
+        <v>35</v>
+      </c>
       <c r="B36">
         <v>2005</v>
       </c>
@@ -4186,7 +4204,9 @@
       </c>
     </row>
     <row r="37" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A37" s="13"/>
+      <c r="A37" s="13" t="s">
+        <v>35</v>
+      </c>
       <c r="B37">
         <v>2005</v>
       </c>
@@ -4279,7 +4299,9 @@
       </c>
     </row>
     <row r="38" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A38" s="15"/>
+      <c r="A38" s="15" t="s">
+        <v>35</v>
+      </c>
       <c r="B38">
         <v>2005</v>
       </c>
@@ -4372,7 +4394,9 @@
       </c>
     </row>
     <row r="39" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A39" s="13"/>
+      <c r="A39" s="13" t="s">
+        <v>35</v>
+      </c>
       <c r="B39">
         <v>2003</v>
       </c>
@@ -4465,7 +4489,9 @@
       </c>
     </row>
     <row r="40" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A40" s="15"/>
+      <c r="A40" s="15" t="s">
+        <v>35</v>
+      </c>
       <c r="B40">
         <v>2004</v>
       </c>
@@ -4558,7 +4584,9 @@
       </c>
     </row>
     <row r="41" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A41" s="13"/>
+      <c r="A41" s="13" t="s">
+        <v>35</v>
+      </c>
       <c r="B41">
         <v>2003</v>
       </c>
@@ -4651,7 +4679,9 @@
       </c>
     </row>
     <row r="42" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A42" s="15"/>
+      <c r="A42" s="15" t="s">
+        <v>35</v>
+      </c>
       <c r="B42">
         <v>2003</v>
       </c>
@@ -4744,118 +4774,668 @@
       </c>
     </row>
     <row r="43" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A43" s="13"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="14"/>
-      <c r="J43" s="14"/>
-      <c r="V43" s="14"/>
-      <c r="W43" s="14"/>
-      <c r="X43" s="14"/>
-      <c r="Y43" s="14"/>
-      <c r="Z43" s="14"/>
-      <c r="AA43" s="14"/>
-      <c r="AB43" s="14"/>
-      <c r="AC43" s="14"/>
-      <c r="AD43" s="14"/>
+      <c r="A43" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B43">
+        <v>2005</v>
+      </c>
+      <c r="C43">
+        <v>20</v>
+      </c>
+      <c r="D43">
+        <v>157.47999999999999</v>
+      </c>
+      <c r="E43">
+        <v>51</v>
+      </c>
+      <c r="G43" s="14">
+        <v>1</v>
+      </c>
+      <c r="H43" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="I43" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="J43" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="K43">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="L43">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="M43">
+        <v>0.4</v>
+      </c>
+      <c r="N43">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <v>1.02</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <v>6</v>
+      </c>
+      <c r="S43">
+        <v>0.3</v>
+      </c>
+      <c r="T43">
+        <v>0</v>
+      </c>
+      <c r="U43">
+        <v>5</v>
+      </c>
+      <c r="V43" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="W43" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="X43" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y43" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z43" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA43" s="14">
+        <v>3</v>
+      </c>
+      <c r="AB43" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC43" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD43" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE43">
+        <v>11.3</v>
+      </c>
+      <c r="AF43">
+        <v>51</v>
+      </c>
     </row>
     <row r="44" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A44" s="15"/>
-      <c r="G44" s="16"/>
-      <c r="H44" s="16"/>
-      <c r="I44" s="16"/>
-      <c r="J44" s="16"/>
-      <c r="V44" s="16"/>
-      <c r="W44" s="16"/>
-      <c r="X44" s="16"/>
-      <c r="Y44" s="16"/>
-      <c r="Z44" s="16"/>
-      <c r="AA44" s="16"/>
-      <c r="AB44" s="16"/>
-      <c r="AC44" s="16"/>
-      <c r="AD44" s="16"/>
+      <c r="A44" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B44">
+        <v>2005</v>
+      </c>
+      <c r="C44">
+        <v>20</v>
+      </c>
+      <c r="D44">
+        <v>154.94</v>
+      </c>
+      <c r="E44">
+        <v>42</v>
+      </c>
+      <c r="G44" s="16">
+        <v>1</v>
+      </c>
+      <c r="H44" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="I44" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="J44" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="K44">
+        <v>11.01</v>
+      </c>
+      <c r="L44">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="M44">
+        <v>0.4</v>
+      </c>
+      <c r="N44">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>4.25</v>
+      </c>
+      <c r="R44">
+        <v>7.5</v>
+      </c>
+      <c r="S44">
+        <v>0.4</v>
+      </c>
+      <c r="U44">
+        <v>5</v>
+      </c>
+      <c r="V44" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="W44" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="X44" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y44" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z44" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA44" s="16">
+        <v>4</v>
+      </c>
+      <c r="AB44" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC44" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD44" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE44">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AF44">
+        <v>78</v>
+      </c>
     </row>
     <row r="45" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A45" s="13"/>
-      <c r="G45" s="14"/>
-      <c r="H45" s="14"/>
-      <c r="I45" s="14"/>
-      <c r="J45" s="14"/>
-      <c r="V45" s="14"/>
-      <c r="W45" s="14"/>
-      <c r="X45" s="14"/>
-      <c r="Y45" s="14"/>
-      <c r="Z45" s="14"/>
-      <c r="AA45" s="14"/>
-      <c r="AB45" s="14"/>
-      <c r="AC45" s="14"/>
-      <c r="AD45" s="14"/>
+      <c r="A45" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B45">
+        <v>2003</v>
+      </c>
+      <c r="C45">
+        <v>22</v>
+      </c>
+      <c r="D45">
+        <v>160.02000000000001</v>
+      </c>
+      <c r="E45">
+        <v>50</v>
+      </c>
+      <c r="G45" s="14">
+        <v>1</v>
+      </c>
+      <c r="H45" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="I45" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="J45" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="K45">
+        <v>4.5</v>
+      </c>
+      <c r="L45">
+        <v>1.05</v>
+      </c>
+      <c r="M45">
+        <v>0.3</v>
+      </c>
+      <c r="N45">
+        <v>1.56</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <v>0.5</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="R45">
+        <v>8</v>
+      </c>
+      <c r="S45">
+        <v>1</v>
+      </c>
+      <c r="T45">
+        <v>0</v>
+      </c>
+      <c r="U45">
+        <v>5</v>
+      </c>
+      <c r="V45" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="W45" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="X45" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y45" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z45" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA45" s="14">
+        <v>2</v>
+      </c>
+      <c r="AB45" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC45" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD45" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE45">
+        <v>11</v>
+      </c>
+      <c r="AF45">
+        <v>13</v>
+      </c>
     </row>
     <row r="46" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A46" s="15"/>
-      <c r="G46" s="16"/>
-      <c r="H46" s="16"/>
-      <c r="I46" s="16"/>
-      <c r="J46" s="16"/>
-      <c r="V46" s="16"/>
-      <c r="W46" s="16"/>
-      <c r="X46" s="16"/>
-      <c r="Y46" s="16"/>
-      <c r="Z46" s="16"/>
-      <c r="AA46" s="16"/>
-      <c r="AB46" s="16"/>
-      <c r="AC46" s="16"/>
-      <c r="AD46" s="16"/>
+      <c r="A46" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B46">
+        <v>2003</v>
+      </c>
+      <c r="C46">
+        <v>22</v>
+      </c>
+      <c r="D46">
+        <v>167.64</v>
+      </c>
+      <c r="E46">
+        <v>58</v>
+      </c>
+      <c r="G46" s="16">
+        <v>5</v>
+      </c>
+      <c r="H46" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="I46" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="J46" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="K46">
+        <v>6.42</v>
+      </c>
+      <c r="L46">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="M46">
+        <v>1.03</v>
+      </c>
+      <c r="N46">
+        <v>0.39</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>0.05</v>
+      </c>
+      <c r="R46">
+        <v>7</v>
+      </c>
+      <c r="S46">
+        <v>0.3</v>
+      </c>
+      <c r="T46">
+        <v>3.86</v>
+      </c>
+      <c r="U46">
+        <v>5</v>
+      </c>
+      <c r="V46" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="W46" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="X46" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y46" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z46" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA46" s="16">
+        <v>2</v>
+      </c>
+      <c r="AB46" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC46" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD46" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE46">
+        <v>11</v>
+      </c>
+      <c r="AF46">
+        <v>35</v>
+      </c>
     </row>
     <row r="47" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A47" s="13"/>
-      <c r="G47" s="14"/>
-      <c r="H47" s="14"/>
-      <c r="I47" s="14"/>
-      <c r="J47" s="14"/>
-      <c r="V47" s="14"/>
-      <c r="W47" s="14"/>
-      <c r="X47" s="14"/>
-      <c r="Y47" s="14"/>
-      <c r="Z47" s="14"/>
-      <c r="AA47" s="14"/>
-      <c r="AB47" s="14"/>
-      <c r="AC47" s="14"/>
-      <c r="AD47" s="14"/>
+      <c r="A47" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B47">
+        <v>2004</v>
+      </c>
+      <c r="C47">
+        <v>21</v>
+      </c>
+      <c r="D47">
+        <v>160.02000000000001</v>
+      </c>
+      <c r="E47">
+        <v>45</v>
+      </c>
+      <c r="G47" s="14">
+        <v>2</v>
+      </c>
+      <c r="H47" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="I47" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="J47" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="K47">
+        <v>10.46</v>
+      </c>
+      <c r="L47">
+        <v>7.23</v>
+      </c>
+      <c r="M47">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="N47">
+        <v>0.11</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="Q47">
+        <v>0.11</v>
+      </c>
+      <c r="R47">
+        <v>7</v>
+      </c>
+      <c r="S47">
+        <v>0.3</v>
+      </c>
+      <c r="T47">
+        <v>0</v>
+      </c>
+      <c r="U47">
+        <v>5</v>
+      </c>
+      <c r="V47" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="W47" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="X47" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y47" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z47" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA47" s="14">
+        <v>2</v>
+      </c>
+      <c r="AB47" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC47" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD47" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE47">
+        <v>12.3</v>
+      </c>
+      <c r="AF47">
+        <v>10</v>
+      </c>
     </row>
     <row r="48" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A48" s="15"/>
-      <c r="G48" s="16"/>
-      <c r="H48" s="16"/>
-      <c r="I48" s="16"/>
-      <c r="J48" s="16"/>
-      <c r="V48" s="16"/>
-      <c r="W48" s="16"/>
-      <c r="X48" s="16"/>
-      <c r="Y48" s="16"/>
-      <c r="Z48" s="16"/>
-      <c r="AA48" s="16"/>
-      <c r="AB48" s="16"/>
-      <c r="AC48" s="16"/>
-      <c r="AD48" s="16"/>
-    </row>
-    <row r="49" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A49" s="13"/>
-      <c r="G49" s="14"/>
-      <c r="H49" s="14"/>
-      <c r="I49" s="14"/>
-      <c r="J49" s="14"/>
-      <c r="V49" s="14"/>
-      <c r="W49" s="14"/>
-      <c r="X49" s="14"/>
-      <c r="Y49" s="14"/>
-      <c r="Z49" s="14"/>
-      <c r="AA49" s="14"/>
-      <c r="AB49" s="14"/>
-      <c r="AC49" s="14"/>
-      <c r="AD49" s="14"/>
-    </row>
-    <row r="50" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A48" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B48">
+        <v>2005</v>
+      </c>
+      <c r="C48">
+        <v>20</v>
+      </c>
+      <c r="D48">
+        <v>157.47999999999999</v>
+      </c>
+      <c r="E48">
+        <v>60</v>
+      </c>
+      <c r="G48" s="16">
+        <v>1</v>
+      </c>
+      <c r="H48" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="I48" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="J48" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="K48">
+        <v>7.18</v>
+      </c>
+      <c r="L48">
+        <v>1.54</v>
+      </c>
+      <c r="M48">
+        <v>3.3</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <v>0.8</v>
+      </c>
+      <c r="Q48">
+        <v>0.44</v>
+      </c>
+      <c r="R48">
+        <v>6</v>
+      </c>
+      <c r="S48">
+        <v>0.3</v>
+      </c>
+      <c r="T48">
+        <v>0</v>
+      </c>
+      <c r="U48">
+        <v>5</v>
+      </c>
+      <c r="V48" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="W48" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="X48" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y48" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z48" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA48" s="16">
+        <v>4</v>
+      </c>
+      <c r="AB48" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC48" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD48" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE48">
+        <v>1</v>
+      </c>
+      <c r="AF48">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A49" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B49">
+        <v>2004</v>
+      </c>
+      <c r="C49">
+        <v>21</v>
+      </c>
+      <c r="D49">
+        <v>152.4</v>
+      </c>
+      <c r="E49">
+        <v>43</v>
+      </c>
+      <c r="G49" s="14">
+        <v>4</v>
+      </c>
+      <c r="H49" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="I49" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="J49" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="K49">
+        <v>8.42</v>
+      </c>
+      <c r="L49">
+        <v>3.3</v>
+      </c>
+      <c r="M49">
+        <v>0.3</v>
+      </c>
+      <c r="N49">
+        <v>0.1</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <v>1.4</v>
+      </c>
+      <c r="Q49">
+        <v>3.4</v>
+      </c>
+      <c r="R49">
+        <v>6.3</v>
+      </c>
+      <c r="S49">
+        <v>0.3</v>
+      </c>
+      <c r="T49">
+        <v>3.42</v>
+      </c>
+      <c r="U49">
+        <v>5</v>
+      </c>
+      <c r="V49" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="W49" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="X49" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y49" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z49" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA49" s="14">
+        <v>3</v>
+      </c>
+      <c r="AB49" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC49" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD49" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE49">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AF49">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A50" s="15"/>
       <c r="G50" s="16"/>
       <c r="H50" s="16"/>
@@ -4871,7 +5451,7 @@
       <c r="AC50" s="16"/>
       <c r="AD50" s="16"/>
     </row>
-    <row r="51" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A51" s="13"/>
       <c r="G51" s="14"/>
       <c r="H51" s="14"/>
@@ -4887,7 +5467,7 @@
       <c r="AC51" s="14"/>
       <c r="AD51" s="14"/>
     </row>
-    <row r="52" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A52" s="15"/>
       <c r="G52" s="16"/>
       <c r="H52" s="16"/>
@@ -4903,7 +5483,7 @@
       <c r="AC52" s="16"/>
       <c r="AD52" s="16"/>
     </row>
-    <row r="53" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A53" s="13"/>
       <c r="G53" s="14"/>
       <c r="H53" s="14"/>
@@ -4919,7 +5499,7 @@
       <c r="AC53" s="14"/>
       <c r="AD53" s="14"/>
     </row>
-    <row r="54" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A54" s="15"/>
       <c r="G54" s="16"/>
       <c r="H54" s="16"/>
@@ -4935,7 +5515,7 @@
       <c r="AC54" s="16"/>
       <c r="AD54" s="16"/>
     </row>
-    <row r="55" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A55" s="13"/>
       <c r="G55" s="14"/>
       <c r="H55" s="14"/>
@@ -4951,7 +5531,7 @@
       <c r="AC55" s="14"/>
       <c r="AD55" s="14"/>
     </row>
-    <row r="56" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A56" s="15"/>
       <c r="G56" s="16"/>
       <c r="H56" s="16"/>
@@ -4967,7 +5547,7 @@
       <c r="AC56" s="16"/>
       <c r="AD56" s="16"/>
     </row>
-    <row r="57" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A57" s="13"/>
       <c r="G57" s="14"/>
       <c r="H57" s="14"/>
@@ -4983,7 +5563,7 @@
       <c r="AC57" s="14"/>
       <c r="AD57" s="14"/>
     </row>
-    <row r="58" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A58" s="15"/>
       <c r="G58" s="16"/>
       <c r="H58" s="16"/>
@@ -4999,7 +5579,7 @@
       <c r="AC58" s="16"/>
       <c r="AD58" s="16"/>
     </row>
-    <row r="59" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A59" s="13"/>
       <c r="G59" s="14"/>
       <c r="H59" s="14"/>
@@ -5015,7 +5595,7 @@
       <c r="AC59" s="14"/>
       <c r="AD59" s="14"/>
     </row>
-    <row r="60" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A60" s="15"/>
       <c r="G60" s="16"/>
       <c r="H60" s="16"/>
@@ -5031,7 +5611,7 @@
       <c r="AC60" s="16"/>
       <c r="AD60" s="16"/>
     </row>
-    <row r="61" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A61" s="13"/>
       <c r="G61" s="14"/>
       <c r="H61" s="14"/>
@@ -5047,7 +5627,7 @@
       <c r="AC61" s="14"/>
       <c r="AD61" s="14"/>
     </row>
-    <row r="62" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A62" s="15"/>
       <c r="G62" s="16"/>
       <c r="H62" s="16"/>
@@ -5063,7 +5643,7 @@
       <c r="AC62" s="16"/>
       <c r="AD62" s="16"/>
     </row>
-    <row r="63" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A63" s="13"/>
       <c r="G63" s="14"/>
       <c r="H63" s="14"/>
@@ -5079,7 +5659,7 @@
       <c r="AC63" s="14"/>
       <c r="AD63" s="14"/>
     </row>
-    <row r="64" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A64" s="15"/>
       <c r="G64" s="16"/>
       <c r="H64" s="16"/>

--- a/KeyaSocialMedia.xlsx
+++ b/KeyaSocialMedia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C788FD7D-F638-48FB-B8EB-EE96BEC0D9D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E19131-C1B4-4189-BF3B-3A416F5A6DFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="67">
   <si>
     <t>GENDER</t>
   </si>
@@ -220,6 +220,18 @@
   </si>
   <si>
     <t>Part-time</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>alone</t>
   </si>
 </sst>
 </file>
@@ -759,9 +771,9 @@
   </sheetPr>
   <dimension ref="A1:AF1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G48" sqref="G48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5436,100 +5448,571 @@
       </c>
     </row>
     <row r="50" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A50" s="15"/>
-      <c r="G50" s="16"/>
-      <c r="H50" s="16"/>
-      <c r="I50" s="16"/>
-      <c r="J50" s="16"/>
-      <c r="V50" s="16"/>
-      <c r="W50" s="16"/>
-      <c r="X50" s="16"/>
-      <c r="Y50" s="16"/>
-      <c r="Z50" s="16"/>
-      <c r="AA50" s="16"/>
-      <c r="AB50" s="16"/>
-      <c r="AC50" s="16"/>
-      <c r="AD50" s="16"/>
+      <c r="A50" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B50">
+        <v>2003</v>
+      </c>
+      <c r="C50">
+        <v>22</v>
+      </c>
+      <c r="D50">
+        <v>160.02000000000001</v>
+      </c>
+      <c r="E50">
+        <v>54</v>
+      </c>
+      <c r="G50" s="16">
+        <v>5</v>
+      </c>
+      <c r="H50" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="I50" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="J50" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="K50">
+        <v>9.33</v>
+      </c>
+      <c r="L50">
+        <v>5.32</v>
+      </c>
+      <c r="M50">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="N50">
+        <v>0.17</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <v>0.15</v>
+      </c>
+      <c r="Q50">
+        <v>0</v>
+      </c>
+      <c r="R50">
+        <v>8</v>
+      </c>
+      <c r="S50">
+        <v>3.75</v>
+      </c>
+      <c r="T50">
+        <v>5</v>
+      </c>
+      <c r="V50" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="W50" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="X50" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y50" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z50" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA50" s="16">
+        <v>1</v>
+      </c>
+      <c r="AB50" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC50" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD50" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE50">
+        <v>2</v>
+      </c>
+      <c r="AF50">
+        <v>49</v>
+      </c>
     </row>
     <row r="51" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A51" s="13"/>
-      <c r="G51" s="14"/>
-      <c r="H51" s="14"/>
-      <c r="I51" s="14"/>
-      <c r="J51" s="14"/>
-      <c r="V51" s="14"/>
-      <c r="W51" s="14"/>
-      <c r="X51" s="14"/>
-      <c r="Y51" s="14"/>
-      <c r="Z51" s="14"/>
-      <c r="AA51" s="14"/>
-      <c r="AB51" s="14"/>
-      <c r="AC51" s="14"/>
-      <c r="AD51" s="14"/>
+      <c r="A51" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B51">
+        <v>1994</v>
+      </c>
+      <c r="C51">
+        <v>30</v>
+      </c>
+      <c r="D51">
+        <v>162.56</v>
+      </c>
+      <c r="E51">
+        <v>53</v>
+      </c>
+      <c r="G51" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="H51" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="I51" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="J51" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="K51">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="L51">
+        <v>3.17</v>
+      </c>
+      <c r="M51">
+        <v>2.04</v>
+      </c>
+      <c r="N51">
+        <v>0.45</v>
+      </c>
+      <c r="O51">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="P51">
+        <v>1.07</v>
+      </c>
+      <c r="Q51">
+        <v>1.03</v>
+      </c>
+      <c r="R51">
+        <v>4.5</v>
+      </c>
+      <c r="S51">
+        <v>0.2</v>
+      </c>
+      <c r="T51">
+        <v>3.33</v>
+      </c>
+      <c r="U51">
+        <v>5</v>
+      </c>
+      <c r="V51" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="W51" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="X51" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y51" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z51" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA51" s="14">
+        <v>4</v>
+      </c>
+      <c r="AB51" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC51" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD51" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE51">
+        <v>3</v>
+      </c>
+      <c r="AF51">
+        <v>27</v>
+      </c>
     </row>
     <row r="52" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A52" s="15"/>
-      <c r="G52" s="16"/>
-      <c r="H52" s="16"/>
-      <c r="I52" s="16"/>
-      <c r="J52" s="16"/>
-      <c r="V52" s="16"/>
-      <c r="W52" s="16"/>
-      <c r="X52" s="16"/>
-      <c r="Y52" s="16"/>
-      <c r="Z52" s="16"/>
-      <c r="AA52" s="16"/>
-      <c r="AB52" s="16"/>
-      <c r="AC52" s="16"/>
-      <c r="AD52" s="16"/>
+      <c r="A52" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B52">
+        <v>2003</v>
+      </c>
+      <c r="C52">
+        <v>22</v>
+      </c>
+      <c r="D52">
+        <v>167.64</v>
+      </c>
+      <c r="E52">
+        <v>56</v>
+      </c>
+      <c r="G52" s="16">
+        <v>7</v>
+      </c>
+      <c r="H52" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="I52" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="J52" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="K52">
+        <v>8.4</v>
+      </c>
+      <c r="L52">
+        <v>5.08</v>
+      </c>
+      <c r="M52">
+        <v>0.12</v>
+      </c>
+      <c r="N52">
+        <v>2.06</v>
+      </c>
+      <c r="O52">
+        <v>0.1</v>
+      </c>
+      <c r="P52">
+        <v>0.34</v>
+      </c>
+      <c r="Q52">
+        <v>0.5</v>
+      </c>
+      <c r="R52">
+        <v>5</v>
+      </c>
+      <c r="S52">
+        <v>1</v>
+      </c>
+      <c r="T52">
+        <v>3.29</v>
+      </c>
+      <c r="U52" t="s">
+        <v>65</v>
+      </c>
+      <c r="V52" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="W52" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="X52" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y52" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z52" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA52" s="16">
+        <v>5</v>
+      </c>
+      <c r="AB52" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC52" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD52" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE52">
+        <v>6</v>
+      </c>
+      <c r="AF52">
+        <v>46</v>
+      </c>
     </row>
     <row r="53" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A53" s="13"/>
-      <c r="G53" s="14"/>
-      <c r="H53" s="14"/>
-      <c r="I53" s="14"/>
-      <c r="J53" s="14"/>
-      <c r="V53" s="14"/>
-      <c r="W53" s="14"/>
-      <c r="X53" s="14"/>
-      <c r="Y53" s="14"/>
-      <c r="Z53" s="14"/>
-      <c r="AA53" s="14"/>
-      <c r="AB53" s="14"/>
-      <c r="AC53" s="14"/>
-      <c r="AD53" s="14"/>
+      <c r="A53" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B53">
+        <v>2002</v>
+      </c>
+      <c r="C53">
+        <v>23</v>
+      </c>
+      <c r="D53">
+        <v>157.47999999999999</v>
+      </c>
+      <c r="E53">
+        <v>42</v>
+      </c>
+      <c r="G53" s="14">
+        <v>5</v>
+      </c>
+      <c r="H53" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="I53" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="J53" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K53">
+        <v>8.08</v>
+      </c>
+      <c r="L53">
+        <v>4.22</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>0.06</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53">
+        <v>2.58</v>
+      </c>
+      <c r="Q53">
+        <v>0.15</v>
+      </c>
+      <c r="R53">
+        <v>7</v>
+      </c>
+      <c r="S53">
+        <v>1</v>
+      </c>
+      <c r="T53">
+        <v>3.6</v>
+      </c>
+      <c r="U53">
+        <v>5</v>
+      </c>
+      <c r="V53" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="W53" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="X53" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y53" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z53" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA53" s="14">
+        <v>2</v>
+      </c>
+      <c r="AB53" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC53" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD53" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE53">
+        <v>12</v>
+      </c>
+      <c r="AF53">
+        <v>114</v>
+      </c>
     </row>
     <row r="54" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A54" s="15"/>
-      <c r="G54" s="16"/>
-      <c r="H54" s="16"/>
-      <c r="I54" s="16"/>
-      <c r="J54" s="16"/>
-      <c r="V54" s="16"/>
-      <c r="W54" s="16"/>
-      <c r="X54" s="16"/>
-      <c r="Y54" s="16"/>
-      <c r="Z54" s="16"/>
-      <c r="AA54" s="16"/>
-      <c r="AB54" s="16"/>
-      <c r="AC54" s="16"/>
-      <c r="AD54" s="16"/>
+      <c r="A54" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B54">
+        <v>2002</v>
+      </c>
+      <c r="C54">
+        <v>23</v>
+      </c>
+      <c r="D54">
+        <v>167.64</v>
+      </c>
+      <c r="E54">
+        <v>66</v>
+      </c>
+      <c r="G54" s="16">
+        <v>5</v>
+      </c>
+      <c r="H54" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="I54" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="J54" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="K54">
+        <v>8.24</v>
+      </c>
+      <c r="L54">
+        <v>2.31</v>
+      </c>
+      <c r="M54">
+        <v>2.41</v>
+      </c>
+      <c r="N54">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54">
+        <v>0.16</v>
+      </c>
+      <c r="Q54">
+        <v>1.19</v>
+      </c>
+      <c r="R54">
+        <v>8</v>
+      </c>
+      <c r="S54">
+        <v>1</v>
+      </c>
+      <c r="T54">
+        <v>3.86</v>
+      </c>
+      <c r="U54">
+        <v>5</v>
+      </c>
+      <c r="V54" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="W54" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="X54" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y54" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z54" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA54" s="16">
+        <v>2</v>
+      </c>
+      <c r="AB54" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC54" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD54" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE54">
+        <v>2</v>
+      </c>
+      <c r="AF54">
+        <v>64</v>
+      </c>
     </row>
     <row r="55" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A55" s="13"/>
-      <c r="G55" s="14"/>
-      <c r="H55" s="14"/>
-      <c r="I55" s="14"/>
-      <c r="J55" s="14"/>
-      <c r="V55" s="14"/>
-      <c r="W55" s="14"/>
-      <c r="X55" s="14"/>
-      <c r="Y55" s="14"/>
-      <c r="Z55" s="14"/>
-      <c r="AA55" s="14"/>
-      <c r="AB55" s="14"/>
-      <c r="AC55" s="14"/>
-      <c r="AD55" s="14"/>
+      <c r="A55" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B55">
+        <v>2001</v>
+      </c>
+      <c r="C55">
+        <v>23</v>
+      </c>
+      <c r="D55">
+        <v>157.47999999999999</v>
+      </c>
+      <c r="E55">
+        <v>55</v>
+      </c>
+      <c r="G55" s="14">
+        <v>5</v>
+      </c>
+      <c r="H55" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="I55" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="J55" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K55">
+        <v>8.32</v>
+      </c>
+      <c r="L55">
+        <v>1.47</v>
+      </c>
+      <c r="M55">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="N55">
+        <v>0.02</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="Q55">
+        <v>2.56</v>
+      </c>
+      <c r="R55">
+        <v>7</v>
+      </c>
+      <c r="S55">
+        <v>0.2</v>
+      </c>
+      <c r="T55">
+        <v>3.62</v>
+      </c>
+      <c r="U55">
+        <v>5</v>
+      </c>
+      <c r="V55" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="W55" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="X55" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y55" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z55" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA55" s="14">
+        <v>3</v>
+      </c>
+      <c r="AB55" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC55" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD55" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE55">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AF55">
+        <v>59</v>
+      </c>
     </row>
     <row r="56" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A56" s="15"/>
